--- a/Report/Report.xlsx
+++ b/Report/Report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -23,28 +23,28 @@
     <t>WebLink知识测试概括</t>
   </si>
   <si>
-    <t>versionCode</t>
-  </si>
-  <si>
-    <t>versionName</t>
-  </si>
-  <si>
-    <t>packingTime</t>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>包名</t>
+  </si>
+  <si>
+    <t>版本号</t>
   </si>
   <si>
     <t>测试日期</t>
   </si>
   <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>1.4.0</t>
-  </si>
-  <si>
-    <t>2017/12/4 13:00</t>
-  </si>
-  <si>
-    <t>2018-05-07 23:39:09</t>
+    <t>'健康深圳'</t>
+  </si>
+  <si>
+    <t>com.xky.app.patient</t>
+  </si>
+  <si>
+    <t>2.8.0</t>
+  </si>
+  <si>
+    <t>2019-01-21 15:53:54</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,13 +59,13 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>45秒</t>
+    <t>87秒</t>
   </si>
   <si>
     <t>脚本语言</t>
   </si>
   <si>
-    <t>appium1.7+python3</t>
+    <t>appium1.10+python3.5</t>
   </si>
   <si>
     <t>机型</t>
@@ -77,7 +77,7 @@
     <t>失败</t>
   </si>
   <si>
-    <t>asus_P023_android_5.1.1</t>
+    <t>vivo_vivo_android_7.1.2</t>
   </si>
   <si>
     <t>测试详情</t>
@@ -86,15 +86,15 @@
     <t>用例ID</t>
   </si>
   <si>
+    <t>用例标题</t>
+  </si>
+  <si>
+    <t>用例函数</t>
+  </si>
+  <si>
     <t>用例介绍</t>
   </si>
   <si>
-    <t>用例函数</t>
-  </si>
-  <si>
-    <t>前置条件</t>
-  </si>
-  <si>
     <t xml:space="preserve">操作步骤 </t>
   </si>
   <si>
@@ -110,24 +110,29 @@
     <t>截图</t>
   </si>
   <si>
-    <t>test001</t>
-  </si>
-  <si>
-    <t>第一次启动app</t>
-  </si>
-  <si>
-    <t>testFirstOpen</t>
-  </si>
-  <si>
-    <t>打开app</t>
-  </si>
-  <si>
-    <t xml:space="preserve">点击个人图片
+    <t>test_login_001</t>
+  </si>
+  <si>
+    <t>点击【我的】模块</t>
+  </si>
+  <si>
+    <t>test_swip</t>
+  </si>
+  <si>
+    <t>点击我的模块</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点击【健康】模块
+点击【我的】模块
 </t>
   </si>
   <si>
-    <t xml:space="preserve">打开页面成功
+    <t xml:space="preserve">验证我的模块
 </t>
+  </si>
+  <si>
+    <t>用例失败重连过一次，失败原因:==检查点_验证我的模块失败，请检查_com.xky.app.patient:id/navigation_personalCenter1==
+==检查点_验证我的模块失败，请检查_com.xky.app.patient:id/navigation_personalCenter1==</t>
   </si>
 </sst>
 </file>
@@ -234,7 +239,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
-  <c:style val="10"/>
+  <c:style val="6"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -285,10 +290,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -321,20 +326,164 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="6"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>测试统计</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>自动化测试统计</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>测试总况!$C$4:$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>通过总数</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>失败总数</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>测试总况!$D$4:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50020001"/>
+        <c:axId val="50020002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50020001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>测试情况</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50020002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50020002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>用例数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50020001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1000125</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -351,6 +500,79 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="点击【我的】模块CheckPoint_1_NG.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13096875" y="571500"/>
+          <a:ext cx="1028700" cy="1828800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -700,7 +922,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>16</v>
@@ -717,7 +939,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -753,10 +975,10 @@
         <v>20</v>
       </c>
       <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3">
         <v>1</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -836,7 +1058,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="30" customHeight="1">
+    <row r="3" spans="1:10" ht="110" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
@@ -859,10 +1081,11 @@
         <v>36</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="4" spans="1:10" ht="30" customHeight="1"/>
     <row r="5" spans="1:10" ht="30" customHeight="1"/>
@@ -877,5 +1100,6 @@
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Report/Report.xlsx
+++ b/Report/Report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -41,10 +41,10 @@
     <t>com.xky.app.patient</t>
   </si>
   <si>
-    <t>2.8.0</t>
-  </si>
-  <si>
-    <t>2019-03-01 16:52:29</t>
+    <t>2.9.0</t>
+  </si>
+  <si>
+    <t>2019-03-06 17:14:36</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>92秒</t>
+    <t>82秒</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -77,7 +77,7 @@
     <t>失败</t>
   </si>
   <si>
-    <t>vivo_vivo_android_7.1.2</t>
+    <t>samsung_SM-G9550_android_7.1.2</t>
   </si>
   <si>
     <t>测试详情</t>
@@ -113,41 +113,24 @@
     <t>test_login_001</t>
   </si>
   <si>
-    <t>登录APP</t>
-  </si>
-  <si>
-    <t>login</t>
-  </si>
-  <si>
-    <t>登录APP测试</t>
-  </si>
-  <si>
-    <t xml:space="preserve">点击我的模块
-点击注册\登录按钮按钮
-输入手机号
+    <t>登录功能</t>
+  </si>
+  <si>
+    <t>test_login</t>
+  </si>
+  <si>
+    <t>测试登录功能</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点击【我的】模块
+点击注册/登录按钮
+输入手机号码
 输入密码
 点击登录按钮
 </t>
   </si>
   <si>
     <t xml:space="preserve">验证是否登录成功
-</t>
-  </si>
-  <si>
-    <t>test_logout_001</t>
-  </si>
-  <si>
-    <t>logout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">点击我的模块
-点击设置按钮
-点击退出登录按钮
-点击确认按钮
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">验证是否退出成功
 </t>
   </si>
 </sst>
@@ -306,7 +289,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -757,7 +740,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>15</v>
@@ -774,7 +757,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>16</v>
@@ -827,7 +810,7 @@
         <v>20</v>
       </c>
       <c r="B9" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
@@ -938,34 +921,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="30" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
+    <row r="4" spans="1:10" ht="30" customHeight="1"/>
     <row r="5" spans="1:10" ht="30" customHeight="1"/>
     <row r="6" spans="1:10" ht="30" customHeight="1"/>
     <row r="7" spans="1:10" ht="30" customHeight="1"/>
